--- a/PREGUNTAS Y RESPUESTAS.xlsx
+++ b/PREGUNTAS Y RESPUESTAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7349A87C-C9C5-4FC0-B822-FEC09AFB46A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55718B58-31E6-4852-9C41-5D74B760757D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EB5BE863-A437-4CD3-BA7A-765BC4B4E660}"/>
   </bookViews>
@@ -630,22 +630,6 @@
     <t>¿Cómo me matriculo en intercambio?</t>
   </si>
   <si>
-    <t>¿A quién le puedo consultar 
-sobre dudas de intercambio?</t>
-  </si>
-  <si>
-    <t>¿Con quién le puedo consultar 
-sobre dudas de intercambio?</t>
-  </si>
-  <si>
-    <t>¿Quién me puede ayudar con
- dudas sobre intercambio?</t>
-  </si>
-  <si>
-    <t>¿Dónde puedo preguntar
-sobre intercambio?</t>
-  </si>
-  <si>
     <t>Él silabo es un documento de información general de objetivos, fechas, programación y calificación de un curso. Este sirve como guía para todo el semestre académico en lo relacionado al desarrollo del curso.</t>
   </si>
   <si>
@@ -1691,6 +1675,18 @@
   </si>
   <si>
     <t>Si quieres saber más sobre el programa de intercambio o sobre experiencias en el extranjero, puedes dirigirte a la Oficina de Relaciones Internacionales (ORI) que se halla en el 4to piso del pabellón E.</t>
+  </si>
+  <si>
+    <t>¿Dónde puedo preguntar sobre intercambio?</t>
+  </si>
+  <si>
+    <t>¿Con quién le puedo consultar sobre dudas de intercambio?</t>
+  </si>
+  <si>
+    <t>¿Quién me puede ayudar con  dudas sobre intercambio?</t>
+  </si>
+  <si>
+    <t>¿A quién le puedo consultar sobre dudas de intercambio?</t>
   </si>
 </sst>
 </file>
@@ -1726,7 +1722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1737,13 +1733,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2061,7 +2050,7 @@
   <dimension ref="A1:B304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A287" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B309" sqref="B309"/>
+      <selection activeCell="A309" sqref="A309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,10 +2070,10 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2092,7 +2081,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2100,7 +2089,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2108,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2116,15 +2105,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2132,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2140,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2148,31 +2137,31 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2180,7 +2169,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2188,15 +2177,15 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,7 +2193,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2212,7 +2201,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2220,7 +2209,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2228,7 +2217,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2236,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2244,15 +2233,15 @@
         <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2260,7 +2249,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2268,7 +2257,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2276,7 +2265,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2284,39 +2273,39 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2324,7 +2313,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2332,7 +2321,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -2340,151 +2329,151 @@
         <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2492,31 +2481,31 @@
         <v>9</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2524,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2532,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2540,23 +2529,23 @@
         <v>12</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2564,31 +2553,31 @@
         <v>25</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2596,7 +2585,7 @@
         <v>26</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2604,7 +2593,7 @@
         <v>24</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2612,7 +2601,7 @@
         <v>21</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2620,31 +2609,31 @@
         <v>22</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2652,31 +2641,31 @@
         <v>23</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2684,31 +2673,31 @@
         <v>13</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2716,55 +2705,55 @@
         <v>50</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2772,15 +2761,15 @@
         <v>51</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2788,7 +2777,7 @@
         <v>35</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2796,7 +2785,7 @@
         <v>36</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2804,7 +2793,7 @@
         <v>37</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2812,7 +2801,7 @@
         <v>38</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2820,71 +2809,71 @@
         <v>39</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="100" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="101" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2892,7 +2881,7 @@
         <v>40</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2900,7 +2889,7 @@
         <v>41</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2908,7 +2897,7 @@
         <v>42</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2916,7 +2905,7 @@
         <v>43</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2924,7 +2913,7 @@
         <v>44</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2932,7 +2921,7 @@
         <v>45</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2929,7 @@
         <v>46</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2937,7 @@
         <v>47</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2956,7 +2945,7 @@
         <v>44</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2964,7 +2953,7 @@
         <v>48</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2972,7 +2961,7 @@
         <v>49</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2980,7 +2969,7 @@
         <v>50</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2988,7 +2977,7 @@
         <v>51</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2996,7 +2985,7 @@
         <v>52</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3004,15 +2993,15 @@
         <v>53</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3020,7 +3009,7 @@
         <v>54</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3028,7 +3017,7 @@
         <v>55</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3036,7 +3025,7 @@
         <v>56</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3044,7 +3033,7 @@
         <v>57</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3052,7 +3041,7 @@
         <v>58</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3060,7 +3049,7 @@
         <v>59</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3068,7 +3057,7 @@
         <v>60</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3076,7 +3065,7 @@
         <v>61</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3084,7 +3073,7 @@
         <v>62</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3092,7 +3081,7 @@
         <v>63</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3100,7 +3089,7 @@
         <v>64</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3108,7 +3097,7 @@
         <v>65</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3116,7 +3105,7 @@
         <v>66</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3124,7 +3113,7 @@
         <v>67</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3132,7 +3121,7 @@
         <v>68</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3140,7 +3129,7 @@
         <v>69</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3148,7 +3137,7 @@
         <v>70</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3156,15 +3145,15 @@
         <v>71</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3172,7 +3161,7 @@
         <v>72</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3180,7 +3169,7 @@
         <v>73</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -3188,7 +3177,7 @@
         <v>74</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3196,7 +3185,7 @@
         <v>75</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3204,7 +3193,7 @@
         <v>76</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3212,7 +3201,7 @@
         <v>77</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3220,7 +3209,7 @@
         <v>78</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3228,7 +3217,7 @@
         <v>79</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3225,7 @@
         <v>80</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3244,7 +3233,7 @@
         <v>81</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3241,7 @@
         <v>82</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3260,7 +3249,7 @@
         <v>83</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3268,7 +3257,7 @@
         <v>84</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -3276,7 +3265,7 @@
         <v>85</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -3284,7 +3273,7 @@
         <v>86</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3292,7 +3281,7 @@
         <v>87</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3300,7 +3289,7 @@
         <v>88</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3308,7 +3297,7 @@
         <v>89</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3316,7 +3305,7 @@
         <v>90</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3324,7 +3313,7 @@
         <v>91</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3332,7 +3321,7 @@
         <v>92</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3340,7 +3329,7 @@
         <v>93</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3348,7 +3337,7 @@
         <v>94</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3356,7 +3345,7 @@
         <v>95</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3364,7 +3353,7 @@
         <v>96</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3372,7 +3361,7 @@
         <v>97</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -3380,7 +3369,7 @@
         <v>98</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3388,7 +3377,7 @@
         <v>99</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3396,7 +3385,7 @@
         <v>100</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3404,7 +3393,7 @@
         <v>101</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3412,7 +3401,7 @@
         <v>102</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3420,7 +3409,7 @@
         <v>103</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3428,31 +3417,31 @@
         <v>104</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3460,7 +3449,7 @@
         <v>105</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3468,7 +3457,7 @@
         <v>106</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3476,7 +3465,7 @@
         <v>107</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3484,47 +3473,47 @@
         <v>108</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3532,7 +3521,7 @@
         <v>109</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3540,7 +3529,7 @@
         <v>110</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3548,7 +3537,7 @@
         <v>111</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3556,7 +3545,7 @@
         <v>112</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3564,7 +3553,7 @@
         <v>113</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3572,7 +3561,7 @@
         <v>114</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3580,7 +3569,7 @@
         <v>115</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3588,7 +3577,7 @@
         <v>116</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3596,7 +3585,7 @@
         <v>117</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3604,7 +3593,7 @@
         <v>118</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3612,7 +3601,7 @@
         <v>119</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3620,7 +3609,7 @@
         <v>120</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3628,7 +3617,7 @@
         <v>121</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3636,7 +3625,7 @@
         <v>122</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3644,7 +3633,7 @@
         <v>123</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3652,7 +3641,7 @@
         <v>124</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3649,7 @@
         <v>125</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3668,15 +3657,15 @@
         <v>126</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3684,7 +3673,7 @@
         <v>127</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3692,7 +3681,7 @@
         <v>128</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3700,7 +3689,7 @@
         <v>129</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3708,7 +3697,7 @@
         <v>130</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3716,7 +3705,7 @@
         <v>131</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3724,7 +3713,7 @@
         <v>132</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +3721,7 @@
         <v>133</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3740,7 +3729,7 @@
         <v>134</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -3756,7 +3745,7 @@
         <v>137</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3764,7 +3753,7 @@
         <v>138</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,15 +3769,15 @@
         <v>140</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -3796,7 +3785,7 @@
         <v>141</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,7 +3793,7 @@
         <v>142</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -3812,7 +3801,7 @@
         <v>143</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3820,7 +3809,7 @@
         <v>144</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3828,7 +3817,7 @@
         <v>145</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3836,15 +3825,15 @@
         <v>146</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B222" s="5" t="s">
-        <v>480</v>
+      <c r="B222" s="2" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3852,23 +3841,23 @@
         <v>148</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3865,7 @@
         <v>149</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3884,15 +3873,15 @@
         <v>150</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,15 +3889,15 @@
         <v>151</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B230" s="5" t="s">
-        <v>506</v>
+      <c r="B230" s="2" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3916,7 +3905,7 @@
         <v>153</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3924,7 +3913,7 @@
         <v>154</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3932,15 +3921,15 @@
         <v>155</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B234" s="5" t="s">
-        <v>509</v>
+      <c r="B234" s="2" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +3937,7 @@
         <v>157</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3956,7 +3945,7 @@
         <v>158</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3964,7 +3953,7 @@
         <v>159</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3972,7 +3961,7 @@
         <v>160</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3980,7 +3969,7 @@
         <v>161</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3988,7 +3977,7 @@
         <v>162</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,7 +3985,7 @@
         <v>163</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -4004,7 +3993,7 @@
         <v>164</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -4012,7 +4001,7 @@
         <v>165</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -4020,7 +4009,7 @@
         <v>166</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -4028,7 +4017,7 @@
         <v>167</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -4036,7 +4025,7 @@
         <v>168</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -4044,7 +4033,7 @@
         <v>169</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -4052,39 +4041,39 @@
         <v>170</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B251" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="4" t="s">
+      <c r="B251" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B252" s="5" t="s">
-        <v>486</v>
+      <c r="B252" s="2" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -4092,7 +4081,7 @@
         <v>173</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4100,7 +4089,7 @@
         <v>174</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -4108,7 +4097,7 @@
         <v>175</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4116,7 +4105,7 @@
         <v>176</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -4124,7 +4113,7 @@
         <v>177</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -4132,7 +4121,7 @@
         <v>178</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4140,23 +4129,23 @@
         <v>179</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4164,31 +4153,31 @@
         <v>180</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4196,47 +4185,47 @@
         <v>181</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B267" s="5" t="s">
-        <v>248</v>
+      <c r="B267" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4244,7 +4233,7 @@
         <v>183</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4252,63 +4241,63 @@
         <v>184</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4316,7 +4305,7 @@
         <v>185</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4324,7 +4313,7 @@
         <v>186</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4332,15 +4321,15 @@
         <v>187</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4348,15 +4337,15 @@
         <v>188</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4364,7 +4353,7 @@
         <v>189</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4372,7 +4361,7 @@
         <v>190</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4380,7 +4369,7 @@
         <v>191</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4388,7 +4377,7 @@
         <v>192</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4396,7 +4385,7 @@
         <v>193</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -4404,23 +4393,23 @@
         <v>194</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -4428,7 +4417,7 @@
         <v>195</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -4436,7 +4425,7 @@
         <v>196</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -4444,7 +4433,7 @@
         <v>197</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -4452,7 +4441,7 @@
         <v>198</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4460,7 +4449,7 @@
         <v>199</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,39 +4457,39 @@
         <v>200</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>201</v>
+        <v>553</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>202</v>
+        <v>551</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>203</v>
+        <v>552</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>204</v>
+      <c r="A304" s="2" t="s">
+        <v>550</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
